--- a/documents/テスト資料/履歴ページ_単体テスト .xlsx
+++ b/documents/テスト資料/履歴ページ_単体テスト .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\テスト資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AB95F6-F3BA-4E2C-A5DD-70B01B0CB39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7091ABBC-BE4E-4163-A6D0-3485605FE13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FD258A3B-E340-4176-83B1-3BE93211D855}"/>
   </bookViews>
@@ -1392,7 +1392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5312975-1390-471A-80BB-D684E35121BB}">
   <dimension ref="B2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
